--- a/biology/Médecine/Henri_Hérissey/Henri_Hérissey.xlsx
+++ b/biology/Médecine/Henri_Hérissey/Henri_Hérissey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henri_H%C3%A9rissey</t>
+          <t>Henri_Hérissey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Eugène Hérissey, né le 13 mai 1873 à Évreux et mort le 28 janvier 1959, est un chimiste et pharmacien français.
 Agrégé de la faculté de pharmacie de Paris et pharmacien des hôpitaux de Paris, Henri Hérissey était également membre de l’Académie nationale de pharmacie et de la Royal Pharmaceutical Society of Great Britain.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henri_H%C3%A9rissey</t>
+          <t>Henri_Hérissey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sur la pectine de groseille à maquereau (Ribes grossularia L.), avec Émile Bourquelot, dans le Journal de Pharmacie et de Chimie, 6e série, tome 9, Paris, Octave Doin, 1899, pp.81-286
 Recherches chimiques et physiologiques sur la digestion des mannanes et des galactanes, thèse présentée à la faculté de sciences de Paris pour obtenir le grade de docteur ès-sciences naturelles, Lille : Le Bigot frères, 1903, 87 p.
